--- a/Documentación/Sprints/Sprint3/Sprint_Backlog_3.xlsx
+++ b/Documentación/Sprints/Sprint3/Sprint_Backlog_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE050AD-5D4B-41B7-B67B-724C106C0E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D0A88B-2411-4A9A-BCDD-3EF0926FE435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11055" yWindow="1920" windowWidth="15510" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>Task Name</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Desarrollo de las validaciones necesarias (nombre único, criterios no vacíos, etc.).</t>
   </si>
   <si>
-    <t>Implementar la asociación entre un objetivo y los departamentos seleccionados con sus validaciones correspondientes</t>
-  </si>
-  <si>
     <t>Crear un endpoint para actualizar los datos de un objetivo empresarial, incluyendo las validaciones que aseguran que los cambios cumplan con las reglas de negocio</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>HU-3 T-3</t>
-  </si>
-  <si>
-    <t>HU-3 T-4</t>
   </si>
   <si>
     <t>HU-3 T-5</t>
@@ -646,28 +640,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="60.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="60.42578125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -696,12 +690,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
@@ -730,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -750,21 +744,21 @@
         <v>45631</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
@@ -779,21 +773,21 @@
         <v>45631</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>14</v>
@@ -808,21 +802,21 @@
         <v>45634</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>14</v>
@@ -837,21 +831,21 @@
         <v>45634</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>14</v>
@@ -866,50 +860,50 @@
         <v>45634</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="4">
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="F11" s="4">
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -924,21 +918,21 @@
         <v>45635</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -953,27 +947,27 @@
         <v>45635</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4">
         <v>45634</v>
@@ -982,50 +976,50 @@
         <v>45635</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="4">
+        <v>45632</v>
+      </c>
+      <c r="F15" s="4">
         <v>45634</v>
       </c>
-      <c r="F15" s="4">
-        <v>45635</v>
-      </c>
       <c r="G15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>14</v>
@@ -1040,41 +1034,12 @@
         <v>45634</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4">
-        <v>45632</v>
-      </c>
-      <c r="F17" s="4">
-        <v>45634</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Documentación/Sprints/Sprint3/Sprint_Backlog_3.xlsx
+++ b/Documentación/Sprints/Sprint3/Sprint_Backlog_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D0A88B-2411-4A9A-BCDD-3EF0926FE435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6B16D3-DD08-480C-95B1-E3C86408A4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="1920" windowWidth="15510" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>Task Name</t>
   </si>
@@ -104,30 +104,18 @@
     <t>HU-4</t>
   </si>
   <si>
-    <t>Crear una función en el backend que verifique si el objetivo está asociado a evaluaciones activas antes de permitir su modificación.</t>
-  </si>
-  <si>
     <t>Configurar respuestas de error con mensajes claros en caso de que la modificación no sea posible.</t>
   </si>
   <si>
     <t>Incorporar la validación en el flujo del endpoint de modificación de objetivos para retornar advertencias o bloquear cambios.</t>
   </si>
   <si>
-    <t>Verificar con casos de prueba para evaluar escenarios donde el objetivo está asociado o no a evaluaciones activas.</t>
-  </si>
-  <si>
-    <t>HT-8 T-1</t>
-  </si>
-  <si>
     <t>HT-8 T-2</t>
   </si>
   <si>
     <t>HT-8 T-3</t>
   </si>
   <si>
-    <t>HT-8 T-4</t>
-  </si>
-  <si>
     <t>HT-8</t>
   </si>
   <si>
@@ -140,16 +128,16 @@
     <t>HU-4 T-2</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>4h</t>
   </si>
   <si>
     <t>5h</t>
   </si>
   <si>
-    <t>30min</t>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>6h</t>
   </si>
 </sst>
 </file>
@@ -640,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +732,7 @@
         <v>45631</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>27</v>
@@ -773,7 +761,7 @@
         <v>45631</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>27</v>
@@ -802,7 +790,7 @@
         <v>45634</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>27</v>
@@ -831,7 +819,7 @@
         <v>45634</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>27</v>
@@ -860,7 +848,7 @@
         <v>45634</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>27</v>
@@ -869,12 +857,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -889,21 +877,21 @@
         <v>45635</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -918,10 +906,10 @@
         <v>45635</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>11</v>
@@ -929,117 +917,59 @@
     </row>
     <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4">
+        <v>45632</v>
+      </c>
+      <c r="F13" s="4">
         <v>45634</v>
       </c>
-      <c r="F13" s="4">
-        <v>45635</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="4">
+        <v>45632</v>
+      </c>
+      <c r="F14" s="4">
         <v>45634</v>
       </c>
-      <c r="F14" s="4">
-        <v>45635</v>
-      </c>
       <c r="G14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45632</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45634</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45632</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45634</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
